--- a/biology/Biologie cellulaire et moléculaire/PPP2R5C/PPP2R5C.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PPP2R5C/PPP2R5C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sérine/thréonine-protéine phosphatase 2A 56 kDa, sous-unité régulatrice de l'isoforme gamma, est une enzyme qui, chez l'homme, est codée par le gène PPP2R5C[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sérine/thréonine-protéine phosphatase 2A 56 kDa, sous-unité régulatrice de l'isoforme gamma, est une enzyme qui, chez l'homme, est codée par le gène PPP2R5C,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le produit de ce gène appartient à la famille des sous-unités régulatrices Protéine phosphatase 2A. Protéine phosphatase 2A est l'une des quatre principales phosphatases Ser / Thr et elle est impliquée dans le contrôle négatif de la croissance et de la division cellulaires. Il est constitué d'une enzyme centrale hétéromérique commune, composée d'une sous-unité catalytique et d'une sous-unité régulatrice constante, qui s'associe à diverses sous-unités de régulation. La sous-unité de régulation B pourrait moduler la sélectivité du substrat et l'activité catalytique. Ce gène code une isoforme gamma de la sous-famille régulatrice B56. Des variantes de transcription épissées alternativement codant différentes isoformes ont été identifiées.
 </t>
@@ -542,9 +556,11 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été démontré que PPP2R5C interagit avec PPP2R1B[7], PPP2CA[7],[8],[9] et PPP2R5A[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été démontré que PPP2R5C interagit avec PPP2R1B, PPP2CA et PPP2R5A.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c GRCh38: Ensembl release 89: ENSG00000078304 - Ensembl, May 2017
